--- a/datapandas/ReferencePopulationGenerationGroup.xlsx
+++ b/datapandas/ReferencePopulationGenerationGroup.xlsx
@@ -48,9 +48,6 @@
     <t>Gen X</t>
   </si>
   <si>
-    <t>Baby Boomers</t>
-  </si>
-  <si>
     <t>75 years and over</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Boomers</t>
   </si>
 </sst>
 </file>
@@ -76,6 +76,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -423,7 +426,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -466,15 +469,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
